--- a/Project/DataTable/Excel/场景配置表.xlsx
+++ b/Project/DataTable/Excel/场景配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="7650"/>
+    <workbookView windowWidth="20670" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="场景配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Id</t>
   </si>
@@ -31,12 +31,18 @@
     <t>BackgroundMusicId</t>
   </si>
   <si>
+    <t>PlayerSpawn</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>vector3</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>背景音乐编号</t>
   </si>
   <si>
+    <t>玩家出生点</t>
+  </si>
+  <si>
     <t>场景</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>0.0;0.0;0.0;</t>
+  </si>
+  <si>
     <t>角色创建场景</t>
   </si>
   <si>
@@ -77,6 +89,9 @@
   </si>
   <si>
     <t>MainCity</t>
+  </si>
+  <si>
+    <t>21.0;0.0;0.0;</t>
   </si>
 </sst>
 </file>
@@ -85,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -520,22 +535,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,116 +566,137 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3">
-      <formula1>"cs,s,c,skip"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2 E2">
       <formula1>"uint,int,string,float,byte,short,ushort,word,char,vector3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3:D3 E3 F3">
+      <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>

--- a/Project/DataTable/Excel/场景配置表.xlsx
+++ b/Project/DataTable/Excel/场景配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12630"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="场景配置" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>Id</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>21.0;0.0;0.0;</t>
+  </si>
+  <si>
+    <t>关卡01</t>
+  </si>
+  <si>
+    <t>关卡01场景</t>
+  </si>
+  <si>
+    <t>Level_01</t>
   </si>
 </sst>
 </file>
@@ -105,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -181,20 +190,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -541,180 +553,204 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Project/DataTable/Excel/场景配置表.xlsx
+++ b/Project/DataTable/Excel/场景配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28710" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="场景配置" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -190,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,9 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -556,7 +553,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -662,71 +659,71 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -747,9 +744,9 @@
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
